--- a/Макеты/ADO_En/VA_LoadingADO_En.xlsx
+++ b/Макеты/ADO_En/VA_LoadingADO_En.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA0A42-CAFE-431E-B7A3-8BDF56AFB09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>2900001970198</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Product ID</t>
   </si>
   <si>
-    <t>Cash flow items</t>
-  </si>
-  <si>
     <t>Product range</t>
   </si>
   <si>
@@ -81,9 +79,6 @@
     <t>2C:Corporation</t>
   </si>
   <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
     <t>3Software sale</t>
   </si>
   <si>
@@ -91,12 +86,18 @@
   </si>
   <si>
     <t>2Software implementation</t>
+  </si>
+  <si>
+    <t>Activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,13 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +438,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -454,7 +458,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -462,8 +466,8 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
+      <c r="D2" s="4">
+        <v>44197</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -475,16 +479,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
+      <c r="D3" s="4">
+        <v>44228</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -496,16 +500,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
+      <c r="D4" s="4">
+        <v>44256</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -517,16 +521,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
+      <c r="D5" s="4">
+        <v>44197</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -538,16 +542,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+      <c r="D6" s="4">
+        <v>44228</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -559,7 +563,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -567,8 +571,8 @@
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>44228</v>
+      <c r="D7" s="4">
+        <v>44256</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -580,16 +584,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>44228</v>
+      <c r="D8" s="4">
+        <v>44197</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -601,15 +605,15 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>44228</v>
       </c>
       <c r="E9">
@@ -622,16 +626,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
-        <v>44228</v>
+      <c r="D10" s="4">
+        <v>44256</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -643,16 +647,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
-        <v>44228</v>
+      <c r="D11" s="4">
+        <v>44197</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -664,7 +668,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -672,8 +676,8 @@
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>44256</v>
+      <c r="D12" s="4">
+        <v>44228</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -685,15 +689,15 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>44256</v>
       </c>
       <c r="E13">
@@ -706,16 +710,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>44256</v>
+      <c r="D14" s="4">
+        <v>44197</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -727,16 +731,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
-        <v>44256</v>
+      <c r="D15" s="4">
+        <v>44228</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -748,15 +752,15 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>44256</v>
       </c>
       <c r="E16">
@@ -769,16 +773,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
+      <c r="D17" s="4">
+        <v>44197</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -790,7 +794,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -798,7 +802,7 @@
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>44228</v>
       </c>
       <c r="E18">
@@ -811,15 +815,15 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>44256</v>
       </c>
       <c r="E19">
@@ -832,7 +836,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -840,8 +844,8 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
+      <c r="D20" s="4">
+        <v>44197</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -853,7 +857,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -861,8 +865,8 @@
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
+      <c r="D21" s="4">
+        <v>44228</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -874,7 +878,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -882,8 +886,8 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3">
-        <v>44228</v>
+      <c r="D22" s="4">
+        <v>44256</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -895,7 +899,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -903,8 +907,8 @@
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
-        <v>44228</v>
+      <c r="D23" s="4">
+        <v>44197</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -916,7 +920,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -924,8 +928,8 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3">
-        <v>44256</v>
+      <c r="D24" s="4">
+        <v>44228</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -937,7 +941,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -945,7 +949,7 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>44256</v>
       </c>
       <c r="E25">
